--- a/resources/zbackup/宿舍.xlsx
+++ b/resources/zbackup/宿舍.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CxxProgram\SmartDesk\Resources\zbackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4A818-C25E-40C0-8E15-424246C4FB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58DC2C-D6E8-4A76-B725-AD338BB26854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,17 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="175">
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2022计算机科学与技术1班学生宿舍退费名单</t>
-    </r>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -558,13 +547,16 @@
   </si>
   <si>
     <t>6222031402006767623</t>
+  </si>
+  <si>
+    <t>2022计算机科学与技术1班学生宿舍退费名单</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -575,12 +567,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -614,12 +600,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -647,7 +627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -670,13 +650,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,56 +673,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,7 +1000,7 @@
   <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -1033,57 +1019,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="18"/>
-      <c r="L1" s="17"/>
+      <c r="L1" s="18" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1">
@@ -1091,34 +1077,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>2022</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5">
         <v>172720129</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="3">
         <v>1800</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="L3" s="3"/>
     </row>
@@ -1127,34 +1113,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>2022</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5">
         <v>2227010101</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3">
         <v>2160</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -1163,34 +1149,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>2022</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5">
         <v>2227010102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3">
         <v>2160</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="3"/>
     </row>
@@ -1199,34 +1185,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>2022</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5">
         <v>2227010103</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3">
         <v>2160</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="3"/>
     </row>
@@ -1235,34 +1221,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>2022</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>2227010104</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3">
         <v>2160</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -1271,34 +1257,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>2022</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5">
         <v>2227010105</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="3">
         <v>2160</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="3"/>
     </row>
@@ -1307,34 +1293,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>2022</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5">
         <v>2227010106</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3">
         <v>2160</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="3"/>
     </row>
@@ -1343,34 +1329,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>2022</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5">
         <v>2227010107</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="3">
         <v>2160</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -1379,34 +1365,34 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>2022</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
         <v>2227010108</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="3">
         <v>2160</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="3"/>
     </row>
@@ -1415,34 +1401,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>2022</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5">
         <v>2227010109</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="3">
         <v>2160</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="3"/>
     </row>
@@ -1451,34 +1437,34 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <v>2022</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5">
         <v>2227010110</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3">
         <v>2160</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -1487,34 +1473,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>2022</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5">
         <v>2227010111</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="3">
         <v>2160</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -1523,34 +1509,34 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>2022</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
         <v>2227010112</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="3">
         <v>2160</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L15" s="3"/>
     </row>
@@ -1559,34 +1545,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3">
         <v>2022</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5">
         <v>2227010113</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="3">
         <v>2160</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" s="3"/>
     </row>
@@ -1595,34 +1581,34 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5">
         <v>2227010114</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="3">
         <v>2160</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="3"/>
     </row>
@@ -1631,34 +1617,34 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3">
         <v>2022</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5">
         <v>2227010115</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="3">
         <v>2160</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="3"/>
     </row>
@@ -1667,34 +1653,34 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>2022</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5">
         <v>2227010116</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="3">
         <v>2160</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="3"/>
     </row>
@@ -1703,34 +1689,34 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>2022</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5">
         <v>2227010117</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="3">
         <v>2160</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L20" s="3"/>
     </row>
@@ -1739,34 +1725,34 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>2022</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5">
         <v>2227010118</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="3">
         <v>2160</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="3"/>
     </row>
@@ -1775,34 +1761,34 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3">
         <v>2022</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5">
         <v>2227010119</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="3">
         <v>2160</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L22" s="3"/>
     </row>
@@ -1811,34 +1797,34 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3">
         <v>2022</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5">
         <v>2227010120</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="3">
         <v>2160</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L23" s="3"/>
     </row>
@@ -1847,34 +1833,34 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3">
         <v>2022</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5">
         <v>2227010121</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="3">
         <v>2160</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L24" s="3"/>
     </row>
@@ -1883,34 +1869,34 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3">
         <v>2022</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5">
         <v>2227010122</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="3">
         <v>2160</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="3"/>
     </row>
@@ -1919,34 +1905,34 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3">
         <v>2022</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5">
         <v>2227010123</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="3">
         <v>2160</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L26" s="3"/>
     </row>
@@ -1955,34 +1941,34 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3">
         <v>2022</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5">
         <v>2227010124</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="H27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="3">
         <v>2160</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L27" s="3"/>
     </row>
@@ -1991,34 +1977,34 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3">
         <v>2022</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5">
         <v>2227010125</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="3">
         <v>2160</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -2027,34 +2013,34 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3">
         <v>2022</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5">
         <v>2227010126</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="3">
         <v>2160</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="L29" s="3"/>
     </row>
@@ -2063,34 +2049,34 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3">
         <v>2022</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="5">
         <v>2227010127</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="3">
         <v>2160</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L30" s="3"/>
     </row>
@@ -2099,34 +2085,34 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>2022</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="5">
         <v>2227010128</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="3">
         <v>2160</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L31" s="3"/>
     </row>
@@ -2135,34 +2121,34 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
         <v>2022</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5">
         <v>2227010129</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="3">
         <v>2160</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L32" s="3"/>
     </row>
@@ -2171,34 +2157,34 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3">
         <v>2022</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="5">
         <v>2227010130</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="3">
         <v>2160</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="L33" s="3"/>
     </row>
@@ -2207,34 +2193,34 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3">
         <v>2022</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="5">
         <v>2227010131</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="3">
         <v>2160</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L34" s="3"/>
     </row>
@@ -2243,34 +2229,34 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3">
         <v>2022</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="5">
         <v>2227010133</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="3">
         <v>2160</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L35" s="3"/>
     </row>
@@ -2279,34 +2265,34 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3">
         <v>2022</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5">
         <v>2227010134</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="3">
         <v>2160</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L36" s="3"/>
     </row>
@@ -2315,34 +2301,34 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3">
         <v>2022</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="5">
         <v>2227010135</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="3">
         <v>2160</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L37" s="3"/>
     </row>
@@ -2351,34 +2337,34 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3">
         <v>2022</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="5">
         <v>2227010136</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="3">
         <v>2160</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L38" s="3"/>
     </row>
@@ -2387,34 +2373,34 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3">
         <v>2022</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="5">
         <v>2227010138</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="3">
         <v>2160</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L39" s="3"/>
     </row>
@@ -2423,34 +2409,34 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3">
         <v>2022</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="5">
         <v>2227010139</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="3">
         <v>2160</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L40" s="3"/>
     </row>
@@ -2459,34 +2445,34 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3">
         <v>2022</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="5">
         <v>2227010140</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="3">
         <v>2160</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L41" s="3"/>
     </row>
@@ -2495,34 +2481,34 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3">
         <v>2022</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="5">
         <v>2227010141</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="3">
         <v>2160</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L42" s="3"/>
     </row>
@@ -2531,34 +2517,34 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3">
         <v>2022</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="5">
         <v>2227010142</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="3">
         <v>2160</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L43" s="3"/>
     </row>
@@ -2567,34 +2553,34 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3">
         <v>2022</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="5">
         <v>2227010143</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" s="3">
         <v>2160</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L44" s="3"/>
     </row>
@@ -2603,34 +2589,34 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3">
         <v>2022</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="5">
         <v>2227010144</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="3">
         <v>2160</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L45" s="3"/>
     </row>
@@ -2639,34 +2625,34 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3">
         <v>2022</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5">
         <v>2227010145</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="3">
         <v>2160</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L46" s="3"/>
     </row>
@@ -2675,34 +2661,34 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3">
         <v>2022</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="5">
         <v>2227010146</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="3">
         <v>2160</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L47" s="3"/>
     </row>
@@ -2711,34 +2697,34 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3">
         <v>2022</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="5">
         <v>2227010147</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="3">
         <v>2160</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L48" s="3"/>
     </row>
@@ -2747,34 +2733,34 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3">
         <v>2022</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="5">
         <v>2227010148</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="3">
         <v>2160</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L49" s="3"/>
     </row>
@@ -2783,34 +2769,34 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3">
         <v>2022</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="5">
         <v>2227010149</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="3">
         <v>2160</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L50" s="3"/>
     </row>
@@ -2819,34 +2805,34 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3">
         <v>2022</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="5">
         <v>2227010150</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="3">
         <v>2160</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L51" s="3"/>
     </row>
@@ -2855,34 +2841,34 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="3">
         <v>2022</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="5">
         <v>2227010151</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" s="3">
         <v>2160</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L52" s="3"/>
     </row>
@@ -2891,34 +2877,34 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3">
         <v>2022</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="5">
         <v>2227010152</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="3">
         <v>2160</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L53" s="3"/>
     </row>
@@ -2927,34 +2913,34 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3">
         <v>2022</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="5">
         <v>2227010153</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" s="3">
         <v>2160</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L54" s="3"/>
     </row>
@@ -2963,34 +2949,34 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="3">
         <v>2022</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="5">
         <v>2227010154</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="3">
         <v>2160</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L55" s="3"/>
     </row>
@@ -2999,34 +2985,34 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3">
         <v>2022</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="5">
         <v>2227010155</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="3">
         <v>2160</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L56" s="3"/>
     </row>
@@ -3035,34 +3021,34 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3">
         <v>2022</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" s="5">
         <v>2227010156</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57" s="3">
         <v>2160</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L57" s="3"/>
     </row>
@@ -3071,34 +3057,34 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="3">
         <v>2022</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="5">
         <v>2227010157</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="3">
         <v>2160</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L58" s="3"/>
     </row>
@@ -3107,34 +3093,34 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3">
         <v>2022</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" s="5">
         <v>2227010158</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="3">
         <v>2160</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L59" s="3"/>
     </row>
@@ -3143,34 +3129,34 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3">
         <v>2022</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" s="5">
         <v>2227010159</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="3">
         <v>2160</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="L60" s="3"/>
     </row>
@@ -3179,34 +3165,34 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="3">
         <v>2022</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61" s="5">
         <v>2227010160</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61" s="3">
         <v>2160</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L61" s="3"/>
     </row>
@@ -3215,34 +3201,34 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="3">
         <v>2022</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" s="5">
         <v>2227010161</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="3">
         <v>2160</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L62" s="3"/>
     </row>
@@ -3251,34 +3237,34 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="3">
         <v>2022</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="5">
         <v>2227010162</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63" s="3">
         <v>2160</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L63" s="3"/>
     </row>
@@ -3287,34 +3273,34 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" s="3">
         <v>2022</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="5">
         <v>2227010163</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" s="3">
         <v>2160</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L64" s="3"/>
     </row>
@@ -3323,34 +3309,34 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" s="3">
         <v>2022</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" s="5">
         <v>2227010164</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="3">
         <v>2160</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L65" s="3"/>
     </row>
@@ -3359,34 +3345,34 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" s="3">
         <v>2022</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" s="5">
         <v>2227010165</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" s="3">
         <v>2160</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L66" s="3"/>
     </row>
@@ -3395,34 +3381,34 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3">
         <v>2022</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" s="5">
         <v>2227010166</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="3">
         <v>2160</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L67" s="3"/>
     </row>
@@ -3431,34 +3417,34 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="3">
         <v>2022</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" s="5">
         <v>2227010168</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68" s="3">
         <v>2160</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L68" s="3"/>
     </row>
@@ -3467,34 +3453,34 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" s="3">
         <v>2022</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69" s="5">
         <v>2227010169</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="3">
         <v>2160</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L69" s="3"/>
     </row>
@@ -3503,34 +3489,34 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" s="3">
         <v>2022</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70" s="5">
         <v>2227010170</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="3">
         <v>2160</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L70" s="3"/>
     </row>
@@ -3539,34 +3525,34 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="3">
         <v>2022</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" s="5">
         <v>2227010171</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="3">
         <v>2160</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L71" s="3"/>
     </row>
@@ -3575,34 +3561,34 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72" s="3">
         <v>2022</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" s="5">
         <v>2227010172</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I72" s="3">
         <v>2160</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L72" s="3"/>
     </row>
@@ -3611,34 +3597,34 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="3">
         <v>2022</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" s="5">
         <v>2227010173</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I73" s="3">
         <v>2160</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L73" s="3"/>
     </row>
@@ -3647,34 +3633,34 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="3">
         <v>2022</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="5">
         <v>2125450138</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="H74" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" s="3">
         <v>2160</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L74" s="3"/>
     </row>
@@ -5416,10 +5402,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8049,7 +8032,7 @@
       <c r="K201" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>